--- a/data/trans_dic/P6901-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6901-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,58%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>59,3; 86,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>44,37; 72,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>42,07; 80,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>50,11; 86,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>54,23; 83,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>49,6; 88,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>61,37; 83,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>52,94; 72,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>50,94; 80,58</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,44%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,41%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>70,22; 89,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>78,27; 95,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>81,51; 96,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>66,72; 93,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>72,48; 96,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>62,63; 91,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>76,86; 97,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>77,62; 95,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>75,15; 90,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>76,48; 91,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>83,95; 95,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>76,04; 92,13</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,24%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,81%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>63,53; 89,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>73,72; 96,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>62,34; 95,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>42,03; 68,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>46,47; 86,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>52,81; 94,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>60,67; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>57,39; 79,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>62,94; 85,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>69,8; 93,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>66,54; 92,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>53,4; 71,3</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,44%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,71%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>59,84; 83,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>68,32; 86,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>63,89; 93,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>46,71; 84,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>55,61; 91,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>63,85; 86,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>66,92; 93,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>65,16; 87,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>63,08; 82,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>69,36; 83,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>71,47; 90,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>62,56; 83,41</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,62%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,41%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,8%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,45%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>46,09; 87,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>49,54; 93,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>55,11; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>65,29; 95,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>28,17; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>53,0; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>34,38; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>62,82; 96,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>51,56; 84,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>58,01; 90,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>60,88; 95,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>71,69; 93,93</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,13%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,75%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,75%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>60,97; 87,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>60,34; 86,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>29,01; 69,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>51,31; 81,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>45,81; 92,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>65,64; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>59,22; 86,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>62,76; 85,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>66,05; 87,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>41,91; 77,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>61,08; 80,23</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,41%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,67%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,72%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,27%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,22%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>56,75; 77,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>34,62; 62,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>72,01; 90,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>55,54; 78,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>72,7; 93,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>54,18; 82,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>77,96; 96,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>63,97; 83,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>64,83; 80,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>47,71; 68,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>78,08; 91,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>63,58; 77,92</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,23%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,43%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,98%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>70,53; 85,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>56,28; 83,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>30,58; 63,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>81,6; 96,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>61,54; 85,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>64,36; 96,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>57,19; 95,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>47,37; 86,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>70,84; 83,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>64,46; 85,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>47,57; 72,47</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>65,94; 89,37</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,3%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,51%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,99%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,5%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,67%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>70,82; 79,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>69,03; 78,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>69,24; 79,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>67,72; 77,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>72,29; 83,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>70,59; 83,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>79,3; 89,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>69,93; 80,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>72,44; 79,05</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>71,93; 79,27</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>75,14; 82,04</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>71,17; 78,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6901-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
+          <t>64,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>71,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,57%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>67,58%</t>
+          <t>67,32%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,33; 83,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,07; 80,99</t>
+          <t>41,98; 81,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,75; 89,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,6; 88,42</t>
+          <t>47,92; 87,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,6; 82,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>50,94; 80,58</t>
+          <t>50,27; 80,63</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82,09%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>88,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>85,41%</t>
+          <t>85,71%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,72; 93,75</t>
+          <t>67,87; 93,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,62; 95,41</t>
+          <t>77,84; 95,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,04; 92,13</t>
+          <t>76,24; 92,11</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>56,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>69,82%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>62,81%</t>
+          <t>62,74%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,03; 68,4</t>
+          <t>42,2; 68,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,39; 79,06</t>
+          <t>57,14; 78,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,4; 71,3</t>
+          <t>53,32; 71,3</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77,66%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>68,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>77,44%</t>
+          <t>81,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>79,02%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,32; 86,47</t>
+          <t>71,08; 93,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,71; 84,6</t>
+          <t>47,43; 84,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,85; 86,49</t>
+          <t>56,49; 90,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,16; 87,87</t>
+          <t>70,02; 95,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>69,36; 83,52</t>
+          <t>71,71; 89,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>62,56; 83,41</t>
+          <t>66,79; 91,07</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>84,45%</t>
+          <t>84,56%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,29; 95,95</t>
+          <t>65,36; 95,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>62,82; 96,12</t>
+          <t>63,74; 96,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>71,69; 93,93</t>
+          <t>71,91; 93,88</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>67,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>74,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>70,75%</t>
+          <t>70,92%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51,31; 81,76</t>
+          <t>51,53; 82,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,22; 86,41</t>
+          <t>59,72; 86,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>61,08; 80,23</t>
+          <t>61,23; 80,44</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>67,66%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>74,72%</t>
+          <t>74,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>71,04%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,54; 78,26</t>
+          <t>55,51; 78,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>63,97; 83,57</t>
+          <t>63,43; 83,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>63,58; 77,92</t>
+          <t>63,38; 77,95</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>73,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>82,61%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>81,6; 96,57</t>
+          <t>81,72; 96,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,37; 86,68</t>
+          <t>49,94; 86,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>65,94; 89,37</t>
+          <t>67,94; 89,55</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>74,67%</t>
+          <t>75,42%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>67,72; 77,96</t>
+          <t>67,25; 77,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>69,93; 80,55</t>
+          <t>72,27; 83,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>71,17; 78,03</t>
+          <t>71,73; 79,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6901-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>59,3; 86,63</t>
+          <t>58,53; 86,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,33; 83,41</t>
+          <t>51,27; 82,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,37; 72,32</t>
+          <t>44,6; 72,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,98; 81,84</t>
+          <t>41,46; 82,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,11; 86,53</t>
+          <t>52,37; 88,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,75; 89,61</t>
+          <t>59,99; 90,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,23; 83,12</t>
+          <t>52,0; 82,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,92; 87,75</t>
+          <t>46,34; 87,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,37; 83,24</t>
+          <t>60,13; 82,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>58,6; 82,38</t>
+          <t>59,8; 82,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,94; 72,63</t>
+          <t>52,82; 73,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>50,27; 80,63</t>
+          <t>51,09; 80,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,22; 89,84</t>
+          <t>69,58; 89,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,27; 95,2</t>
+          <t>77,52; 95,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,51; 96,15</t>
+          <t>83,47; 96,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,87; 93,98</t>
+          <t>65,86; 92,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,48; 96,97</t>
+          <t>72,93; 96,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,63; 91,46</t>
+          <t>61,8; 91,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,86; 97,23</t>
+          <t>77,71; 97,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,84; 95,5</t>
+          <t>78,6; 96,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>75,15; 90,25</t>
+          <t>74,2; 90,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>76,48; 91,73</t>
+          <t>76,73; 92,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,95; 95,0</t>
+          <t>84,27; 95,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,24; 92,11</t>
+          <t>76,48; 92,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,53; 89,66</t>
+          <t>62,16; 89,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,72; 96,38</t>
+          <t>74,18; 96,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,34; 95,68</t>
+          <t>60,32; 95,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,2; 68,61</t>
+          <t>42,48; 69,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,47; 86,53</t>
+          <t>46,54; 86,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,81; 94,34</t>
+          <t>53,6; 94,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,67; 100,0</t>
+          <t>57,91; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,14; 78,99</t>
+          <t>57,55; 79,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62,94; 85,1</t>
+          <t>62,92; 85,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,8; 93,09</t>
+          <t>70,73; 93,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>66,54; 92,26</t>
+          <t>69,81; 92,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,32; 71,3</t>
+          <t>54,38; 71,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,84; 83,1</t>
+          <t>60,62; 83,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,08; 93,57</t>
+          <t>71,51; 93,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,89; 93,29</t>
+          <t>65,99; 92,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,43; 84,96</t>
+          <t>47,68; 84,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,61; 91,28</t>
+          <t>53,48; 88,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,49; 90,08</t>
+          <t>56,88; 89,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,92; 93,81</t>
+          <t>67,14; 93,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,02; 95,52</t>
+          <t>68,68; 95,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,08; 82,6</t>
+          <t>62,39; 82,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,71; 89,28</t>
+          <t>72,1; 89,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>71,47; 90,88</t>
+          <t>71,37; 90,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>66,79; 91,07</t>
+          <t>67,19; 92,81</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1285,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,09; 87,02</t>
+          <t>48,33; 87,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,54; 93,67</t>
+          <t>50,13; 93,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,11; 100,0</t>
+          <t>51,82; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,36; 95,98</t>
+          <t>67,2; 95,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,44 +1310,44 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,0; 100,0</t>
+          <t>50,13; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,38; 100,0</t>
+          <t>35,12; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>63,74; 96,13</t>
+          <t>64,85; 96,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,56; 84,18</t>
+          <t>51,93; 83,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58,01; 90,4</t>
+          <t>58,97; 90,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,88; 95,65</t>
+          <t>55,92; 95,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>71,91; 93,88</t>
+          <t>72,39; 92,8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,32 +1425,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>60,97; 87,36</t>
+          <t>61,21; 87,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>60,34; 86,53</t>
+          <t>59,26; 87,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,01; 69,4</t>
+          <t>28,38; 69,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51,53; 82,18</t>
+          <t>51,99; 81,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,81; 92,73</t>
+          <t>41,33; 92,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,64; 100,0</t>
+          <t>66,19; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,34 +1460,34 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,72; 86,62</t>
+          <t>59,66; 86,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62,76; 85,69</t>
+          <t>62,45; 85,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>66,05; 87,81</t>
+          <t>65,3; 88,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>41,91; 77,63</t>
+          <t>42,35; 80,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>61,23; 80,44</t>
+          <t>60,75; 80,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>56,75; 77,13</t>
+          <t>55,92; 76,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,62; 62,93</t>
+          <t>34,51; 63,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72,01; 90,51</t>
+          <t>71,52; 90,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,51; 78,41</t>
+          <t>55,43; 78,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>72,7; 93,49</t>
+          <t>72,74; 92,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,18; 82,54</t>
+          <t>53,78; 82,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,96; 96,8</t>
+          <t>77,27; 97,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>63,43; 83,29</t>
+          <t>63,11; 83,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>64,83; 80,61</t>
+          <t>64,9; 80,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>47,71; 68,05</t>
+          <t>48,4; 68,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>78,08; 91,76</t>
+          <t>78,21; 91,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>63,38; 77,95</t>
+          <t>63,32; 77,88</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,53; 85,76</t>
+          <t>69,8; 85,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>56,28; 83,32</t>
+          <t>56,38; 82,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,58; 63,26</t>
+          <t>31,65; 65,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>81,72; 96,58</t>
+          <t>80,59; 96,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>61,54; 85,79</t>
+          <t>61,93; 85,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,36; 96,48</t>
+          <t>63,75; 96,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,19; 95,24</t>
+          <t>57,92; 95,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,94; 86,85</t>
+          <t>50,64; 85,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>70,84; 83,82</t>
+          <t>71,29; 83,55</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>64,46; 85,35</t>
+          <t>64,08; 85,21</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>47,57; 72,47</t>
+          <t>47,39; 72,75</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>67,94; 89,55</t>
+          <t>68,93; 89,38</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,82; 79,11</t>
+          <t>70,83; 78,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69,03; 78,99</t>
+          <t>69,29; 79,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,24; 79,25</t>
+          <t>69,64; 79,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>67,25; 77,6</t>
+          <t>67,51; 77,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>72,29; 83,31</t>
+          <t>71,88; 83,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>70,59; 83,34</t>
+          <t>71,79; 83,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>79,3; 89,87</t>
+          <t>79,06; 88,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>72,27; 83,92</t>
+          <t>72,4; 84,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>72,44; 79,05</t>
+          <t>72,42; 79,35</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>71,93; 79,27</t>
+          <t>71,98; 79,67</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>75,14; 82,04</t>
+          <t>74,75; 82,01</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>71,73; 79,68</t>
+          <t>71,84; 79,81</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores en la espalda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31596</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27152</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34265</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15495</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20548</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21810</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28647</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11316</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52144</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>48962</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>62912</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26811</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25077; 37220</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20249; 32492</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26128; 42259</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9979; 19851</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14988; 25318</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16784; 25360</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21261; 33682</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7300; 13862</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42972; 58776</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40346; 55624</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>52533; 73318</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20346; 32167</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>59121</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50491</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>75358</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>38359</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28681</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27177</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38379</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40258</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>87801</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>77668</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>113738</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78617</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>50376; 65061</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43867; 53791</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69099; 79630</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30479; 42866</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23838; 31685</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21207; 31249</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33182; 41612</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35719; 43749</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>77975; 94586</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>69752; 83804</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>105750; 119259</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>70147; 84654</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28831</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22524</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17667</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27834</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15014</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13901</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10698</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32035</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43845</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36425</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28365</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>59869</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22760; 32856</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18772; 24396</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12820; 20346</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21026; 34206</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10111; 18866</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9613; 16933</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7239; 12501</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26432; 36730</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36710; 49792</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30584; 40403</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23565; 31347</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51891; 68308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>42228</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40069</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26393</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27598</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17168</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22542</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25118</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>68024</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59396</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>62611</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51511</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>95622</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>35353; 48909</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33658; 43778</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21425; 30154</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19239; 34115</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12143; 20066</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>16800; 26548</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20098; 28098</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>55395; 77091</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>50551; 66817</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>55228; 68231</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>44536; 56463</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>81301; 112301</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15862</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12130</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12413</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4972</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9691</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4884</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20835</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21820</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17297</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24304</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11094; 20141</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8106; 15141</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7705; 14870</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11933; 17026</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1963; 6970</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5845; 11661</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2027; 5771</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7124; 10546</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15541; 25110</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16410; 25256</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11543; 19721</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20806; 26673</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>31725</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>32501</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11013</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>21378</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10792</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13254</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7427</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22472</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>42516</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>45754</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>18440</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>43850</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>25594; 36720</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>25708; 38028</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6367; 15567</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16436; 25834</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5825; 13059</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10050; 15184</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5700; 7427</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>18027; 25992</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>34909; 47984</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>38244; 51646</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12647; 23906</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>37561; 49930</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>59622</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>26448</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>64763</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>49511</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>36855</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>32571</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>50864</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>52576</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>96477</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>59020</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>115626</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>102087</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>49456; 67672</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18785; 34471</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>56034; 70971</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>40564; 57728</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>31667; 40468</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>24942; 38348</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>43026; 54011</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>44510; 58837</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>85660; 106459</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>48792; 69532</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>104822; 122279</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>90999; 111913</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>85594</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>32063</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>18923</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>51801</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>37546</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>25716</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>17739</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>40276</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>123140</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>57779</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>36662</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>92077</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>76024; 92733</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>25437; 37384</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>12429; 25782</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>45741; 54821</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>30832; 42705</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>19554; 29542</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>12395; 20399</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>27705; 47003</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>113145; 132588</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>48566; 64582</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>28755; 44141</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>76834; 99634</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>354578</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>243376</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>260795</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>246977</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>171575</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>166663</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>183756</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>276261</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>526154</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>410038</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>444551</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>523238</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>334550; 372165</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>226963; 260196</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>243733; 277615</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>229201; 264426</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>158216; 182869</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>153383; 178952</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>171011; 192299</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>256445; 297888</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>501482; 549421</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>389548; 431185</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>423295; 464402</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>498342; 553674</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>